--- a/src/main/webapp/WEB-INF/file/data.xlsx
+++ b/src/main/webapp/WEB-INF/file/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
   <si>
     <t>片区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,26 @@
   </si>
   <si>
     <t>不拓展及无意愿区域</t>
+  </si>
+  <si>
+    <t>一月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -514,20 +534,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="8" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +572,23 @@
       <c r="H1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -578,8 +613,23 @@
       <c r="H2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -604,8 +654,23 @@
       <c r="H3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -630,8 +695,23 @@
       <c r="H4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -656,8 +736,23 @@
       <c r="H5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -682,8 +777,23 @@
       <c r="H6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -700,7 +810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -725,8 +835,23 @@
       <c r="H8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -751,8 +876,23 @@
       <c r="H9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -777,8 +917,23 @@
       <c r="H10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -803,8 +958,23 @@
       <c r="H11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -829,8 +999,23 @@
       <c r="H12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>200</v>
+      </c>
+      <c r="L12">
+        <v>200</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -855,8 +1040,23 @@
       <c r="H13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -881,8 +1081,23 @@
       <c r="H14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -907,8 +1122,23 @@
       <c r="H15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -932,6 +1162,21 @@
       </c>
       <c r="H16" t="s">
         <v>34</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">

--- a/src/main/webapp/WEB-INF/file/data.xlsx
+++ b/src/main/webapp/WEB-INF/file/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -537,7 +537,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I7" sqref="I7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -809,6 +809,21 @@
       <c r="H7" t="s">
         <v>33</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -1179,7 +1194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1194,6 +1209,21 @@
       </c>
       <c r="H17" t="s">
         <v>34</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/file/data.xlsx
+++ b/src/main/webapp/WEB-INF/file/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
   <si>
     <t>片区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t>五月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:M7"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -547,7 +551,7 @@
     <col min="8" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,8 +591,11 @@
       <c r="M1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -628,8 +635,11 @@
       <c r="M2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -669,8 +679,11 @@
       <c r="M3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -710,8 +723,11 @@
       <c r="M4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -751,8 +767,11 @@
       <c r="M5">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -792,8 +811,11 @@
       <c r="M6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -824,8 +846,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -865,8 +890,11 @@
       <c r="M8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -906,8 +934,11 @@
       <c r="M9">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -947,8 +978,11 @@
       <c r="M10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1022,11 @@
       <c r="M11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1066,11 @@
       <c r="M12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1070,8 +1110,11 @@
       <c r="M13">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1111,8 +1154,11 @@
       <c r="M14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1152,8 +1198,11 @@
       <c r="M15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1193,8 +1242,11 @@
       <c r="M16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1223,6 +1275,9 @@
         <v>0</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
     </row>

--- a/src/main/webapp/WEB-INF/file/data.xlsx
+++ b/src/main/webapp/WEB-INF/file/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -541,7 +541,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1067,7 +1067,7 @@
         <v>100</v>
       </c>
       <c r="N12">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:14">
